--- a/NDHSITE-CSKH/NDHSITE/obj/Release/Package/PackageTmp/haiupload/report-tracking-barcodev2.xlsx
+++ b/NDHSITE-CSKH/NDHSITE/obj/Release/Package/PackageTmp/haiupload/report-tracking-barcodev2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>NHẬP KHO LONG AN</t>
   </si>
@@ -85,6 +85,51 @@
   </si>
   <si>
     <t>Tên C1-TT</t>
+  </si>
+  <si>
+    <t>MÃ KHÔNG THỂ NHẬP KHO --&gt; MÃ ĐÃ CÓ NGƯỜI SỬ DỤNG</t>
+  </si>
+  <si>
+    <t>Tran Quang Vinh</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>A1048</t>
+  </si>
+  <si>
+    <t>Phan Văn Năng</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>PHẠM THỊ BÍCH TRÂM</t>
+  </si>
+  <si>
+    <t>A1523</t>
+  </si>
+  <si>
+    <t>HTX Nông Nghiệp Tây Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tiến</t>
+  </si>
+  <si>
+    <t>A1436</t>
+  </si>
+  <si>
+    <t>Dũng Oanh</t>
+  </si>
+  <si>
+    <t>NGUYỄN MINH NHỰT</t>
+  </si>
+  <si>
+    <t>A0131</t>
+  </si>
+  <si>
+    <t>VTNN Phước Hạnh</t>
   </si>
 </sst>
 </file>
@@ -119,7 +164,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +343,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:Z560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -621,10 +681,14 @@
     <col min="18" max="19" width="9.140625" style="3"/>
     <col min="20" max="20" width="27.5703125" style="3" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="3"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="22" max="22" width="26.7109375" style="30" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" style="30" customWidth="1"/>
+    <col min="24" max="25" width="23.28515625" style="30" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -656,15 +720,27 @@
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
       <c r="K2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="D3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="19" t="s">
@@ -680,8 +756,13 @@
       <c r="M3" s="20"/>
       <c r="N3" s="21"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -745,9 +826,891 @@
       <c r="U4" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="V4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+    </row>
+    <row r="417" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V417" s="29"/>
+      <c r="W417" s="29"/>
+      <c r="X417" s="29"/>
+      <c r="Y417" s="29"/>
+      <c r="Z417" s="29"/>
+    </row>
+    <row r="418" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V418" s="29"/>
+      <c r="W418" s="29"/>
+      <c r="X418" s="29"/>
+      <c r="Y418" s="29"/>
+      <c r="Z418" s="29"/>
+    </row>
+    <row r="419" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V419" s="29"/>
+      <c r="W419" s="29"/>
+      <c r="X419" s="29"/>
+      <c r="Y419" s="29"/>
+      <c r="Z419" s="29"/>
+    </row>
+    <row r="420" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V420" s="29"/>
+      <c r="W420" s="29"/>
+      <c r="X420" s="29"/>
+      <c r="Y420" s="29"/>
+      <c r="Z420" s="29"/>
+    </row>
+    <row r="421" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V421" s="29"/>
+      <c r="W421" s="29"/>
+      <c r="X421" s="29"/>
+      <c r="Y421" s="29"/>
+      <c r="Z421" s="29"/>
+    </row>
+    <row r="422" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V422" s="29"/>
+      <c r="W422" s="29"/>
+      <c r="X422" s="29"/>
+      <c r="Y422" s="29"/>
+      <c r="Z422" s="29"/>
+    </row>
+    <row r="423" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V423" s="29"/>
+      <c r="W423" s="29"/>
+      <c r="X423" s="29"/>
+      <c r="Y423" s="29"/>
+      <c r="Z423" s="29"/>
+    </row>
+    <row r="424" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V424" s="29"/>
+      <c r="W424" s="29"/>
+      <c r="X424" s="29"/>
+      <c r="Y424" s="29"/>
+      <c r="Z424" s="29"/>
+    </row>
+    <row r="425" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V425" s="29"/>
+      <c r="W425" s="29"/>
+      <c r="X425" s="29"/>
+      <c r="Y425" s="29"/>
+      <c r="Z425" s="29"/>
+    </row>
+    <row r="426" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V426" s="29"/>
+      <c r="W426" s="29"/>
+      <c r="X426" s="29"/>
+      <c r="Y426" s="29"/>
+      <c r="Z426" s="29"/>
+    </row>
+    <row r="427" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V427" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="W427" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X427" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y427" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z427" s="29"/>
+    </row>
+    <row r="428" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V428" s="29"/>
+      <c r="W428" s="29"/>
+      <c r="X428" s="29"/>
+      <c r="Y428" s="29"/>
+      <c r="Z428" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="429" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V429" s="29"/>
+      <c r="W429" s="29"/>
+      <c r="X429" s="29"/>
+      <c r="Y429" s="29"/>
+      <c r="Z429" s="29"/>
+    </row>
+    <row r="430" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V430" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W430" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X430" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y430" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z430" s="29"/>
+    </row>
+    <row r="431" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V431" s="29"/>
+      <c r="W431" s="29"/>
+      <c r="X431" s="29"/>
+      <c r="Y431" s="29"/>
+      <c r="Z431" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="432" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V432" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W432" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X432" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y432" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z432" s="29"/>
+    </row>
+    <row r="433" spans="22:26" x14ac:dyDescent="0.2">
+      <c r="V433" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W433" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X433" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y433" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z433" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="434" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V434" s="29"/>
+      <c r="W434" s="29"/>
+      <c r="X434" s="29"/>
+      <c r="Y434" s="29"/>
+      <c r="Z434" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="435" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V435" s="29"/>
+      <c r="W435" s="29"/>
+      <c r="X435" s="29"/>
+      <c r="Y435" s="29"/>
+      <c r="Z435" s="29"/>
+    </row>
+    <row r="436" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V436" s="29"/>
+      <c r="W436" s="29"/>
+      <c r="X436" s="29"/>
+      <c r="Y436" s="29"/>
+      <c r="Z436" s="29"/>
+    </row>
+    <row r="437" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V437" s="29"/>
+      <c r="W437" s="29"/>
+      <c r="X437" s="29"/>
+      <c r="Y437" s="29"/>
+      <c r="Z437" s="29"/>
+    </row>
+    <row r="438" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V438" s="29"/>
+      <c r="W438" s="29"/>
+      <c r="X438" s="29"/>
+      <c r="Y438" s="29"/>
+      <c r="Z438" s="29"/>
+    </row>
+    <row r="439" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V439" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="W439" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X439" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y439" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z439" s="29"/>
+    </row>
+    <row r="440" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V440" s="29"/>
+      <c r="W440" s="29"/>
+      <c r="X440" s="29"/>
+      <c r="Y440" s="29"/>
+      <c r="Z440" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V441" s="29"/>
+      <c r="W441" s="29"/>
+      <c r="X441" s="29"/>
+      <c r="Y441" s="29"/>
+      <c r="Z441" s="29"/>
+    </row>
+    <row r="442" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V442" s="29"/>
+      <c r="W442" s="29"/>
+      <c r="X442" s="29"/>
+      <c r="Y442" s="29"/>
+      <c r="Z442" s="29"/>
+    </row>
+    <row r="443" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V443" s="29"/>
+      <c r="W443" s="29"/>
+      <c r="X443" s="29"/>
+      <c r="Y443" s="29"/>
+      <c r="Z443" s="29"/>
+    </row>
+    <row r="444" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V444" s="29"/>
+      <c r="W444" s="29"/>
+      <c r="X444" s="29"/>
+      <c r="Y444" s="29"/>
+      <c r="Z444" s="29"/>
+    </row>
+    <row r="445" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V445" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="W445" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X445" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y445" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z445" s="29"/>
+    </row>
+    <row r="446" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V446" s="29"/>
+      <c r="W446" s="29"/>
+      <c r="X446" s="29"/>
+      <c r="Y446" s="29"/>
+      <c r="Z446" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V447" s="29"/>
+      <c r="W447" s="29"/>
+      <c r="X447" s="29"/>
+      <c r="Y447" s="29"/>
+      <c r="Z447" s="29"/>
+    </row>
+    <row r="448" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V448" s="29"/>
+      <c r="W448" s="29"/>
+      <c r="X448" s="29"/>
+      <c r="Y448" s="29"/>
+      <c r="Z448" s="29"/>
+    </row>
+    <row r="465" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V465" s="29"/>
+      <c r="W465" s="29"/>
+      <c r="X465" s="29"/>
+      <c r="Y465" s="29"/>
+      <c r="Z465" s="29"/>
+    </row>
+    <row r="466" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V466" s="29"/>
+      <c r="W466" s="29"/>
+      <c r="X466" s="29"/>
+      <c r="Y466" s="29"/>
+      <c r="Z466" s="29"/>
+    </row>
+    <row r="467" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V467" s="29"/>
+      <c r="W467" s="29"/>
+      <c r="X467" s="29"/>
+      <c r="Y467" s="29"/>
+      <c r="Z467" s="29"/>
+    </row>
+    <row r="468" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V468" s="29"/>
+      <c r="W468" s="29"/>
+      <c r="X468" s="29"/>
+      <c r="Y468" s="29"/>
+      <c r="Z468" s="29"/>
+    </row>
+    <row r="469" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V469" s="29"/>
+      <c r="W469" s="29"/>
+      <c r="X469" s="29"/>
+      <c r="Y469" s="29"/>
+      <c r="Z469" s="29"/>
+    </row>
+    <row r="470" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V470" s="29"/>
+      <c r="W470" s="29"/>
+      <c r="X470" s="29"/>
+      <c r="Y470" s="29"/>
+      <c r="Z470" s="29"/>
+    </row>
+    <row r="471" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V471" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W471" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X471" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y471" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z471" s="29"/>
+    </row>
+    <row r="472" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V472" s="29"/>
+      <c r="W472" s="29"/>
+      <c r="X472" s="29"/>
+      <c r="Y472" s="29"/>
+      <c r="Z472" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="473" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V473" s="29"/>
+      <c r="W473" s="29"/>
+      <c r="X473" s="29"/>
+      <c r="Y473" s="29"/>
+      <c r="Z473" s="29"/>
+    </row>
+    <row r="474" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V474" s="29"/>
+      <c r="W474" s="29"/>
+      <c r="X474" s="29"/>
+      <c r="Y474" s="29"/>
+      <c r="Z474" s="29"/>
+    </row>
+    <row r="475" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V475" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W475" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X475" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y475" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z475" s="29"/>
+    </row>
+    <row r="476" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V476" s="29"/>
+      <c r="W476" s="29"/>
+      <c r="X476" s="29"/>
+      <c r="Y476" s="29"/>
+      <c r="Z476" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="477" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V477" s="29"/>
+      <c r="W477" s="29"/>
+      <c r="X477" s="29"/>
+      <c r="Y477" s="29"/>
+      <c r="Z477" s="29"/>
+    </row>
+    <row r="478" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V478" s="29"/>
+      <c r="W478" s="29"/>
+      <c r="X478" s="29"/>
+      <c r="Y478" s="29"/>
+      <c r="Z478" s="29"/>
+    </row>
+    <row r="479" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V479" s="29"/>
+      <c r="W479" s="29"/>
+      <c r="X479" s="29"/>
+      <c r="Y479" s="29"/>
+      <c r="Z479" s="29"/>
+    </row>
+    <row r="480" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V480" s="29"/>
+      <c r="W480" s="29"/>
+      <c r="X480" s="29"/>
+      <c r="Y480" s="29"/>
+      <c r="Z480" s="29"/>
+    </row>
+    <row r="481" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V481" s="29"/>
+      <c r="W481" s="29"/>
+      <c r="X481" s="29"/>
+      <c r="Y481" s="29"/>
+      <c r="Z481" s="29"/>
+    </row>
+    <row r="482" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V482" s="29"/>
+      <c r="W482" s="29"/>
+      <c r="X482" s="29"/>
+      <c r="Y482" s="29"/>
+      <c r="Z482" s="29"/>
+    </row>
+    <row r="483" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V483" s="29"/>
+      <c r="W483" s="29"/>
+      <c r="X483" s="29"/>
+      <c r="Y483" s="29"/>
+      <c r="Z483" s="29"/>
+    </row>
+    <row r="484" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V484" s="29"/>
+      <c r="W484" s="29"/>
+      <c r="X484" s="29"/>
+      <c r="Y484" s="29"/>
+      <c r="Z484" s="29"/>
+    </row>
+    <row r="485" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V485" s="29"/>
+      <c r="W485" s="29"/>
+      <c r="X485" s="29"/>
+      <c r="Y485" s="29"/>
+      <c r="Z485" s="29"/>
+    </row>
+    <row r="486" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V486" s="29"/>
+      <c r="W486" s="29"/>
+      <c r="X486" s="29"/>
+      <c r="Y486" s="29"/>
+      <c r="Z486" s="29"/>
+    </row>
+    <row r="487" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V487" s="29"/>
+      <c r="W487" s="29"/>
+      <c r="X487" s="29"/>
+      <c r="Y487" s="29"/>
+      <c r="Z487" s="29"/>
+    </row>
+    <row r="488" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V488" s="29"/>
+      <c r="W488" s="29"/>
+      <c r="X488" s="29"/>
+      <c r="Y488" s="29"/>
+      <c r="Z488" s="29"/>
+    </row>
+    <row r="489" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V489" s="29"/>
+      <c r="W489" s="29"/>
+      <c r="X489" s="29"/>
+      <c r="Y489" s="29"/>
+      <c r="Z489" s="29"/>
+    </row>
+    <row r="490" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V490" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W490" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X490" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y490" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z490" s="29"/>
+    </row>
+    <row r="491" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V491" s="29"/>
+      <c r="W491" s="29"/>
+      <c r="X491" s="29"/>
+      <c r="Y491" s="29"/>
+      <c r="Z491" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="492" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V492" s="29"/>
+      <c r="W492" s="29"/>
+      <c r="X492" s="29"/>
+      <c r="Y492" s="29"/>
+      <c r="Z492" s="29"/>
+    </row>
+    <row r="493" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V493" s="29"/>
+      <c r="W493" s="29"/>
+      <c r="X493" s="29"/>
+      <c r="Y493" s="29"/>
+      <c r="Z493" s="29"/>
+    </row>
+    <row r="494" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V494" s="29"/>
+      <c r="W494" s="29"/>
+      <c r="X494" s="29"/>
+      <c r="Y494" s="29"/>
+      <c r="Z494" s="29"/>
+    </row>
+    <row r="495" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V495" s="29"/>
+      <c r="W495" s="29"/>
+      <c r="X495" s="29"/>
+      <c r="Y495" s="29"/>
+      <c r="Z495" s="29"/>
+    </row>
+    <row r="496" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V496" s="29"/>
+      <c r="W496" s="29"/>
+      <c r="X496" s="29"/>
+      <c r="Y496" s="29"/>
+      <c r="Z496" s="29"/>
+    </row>
+    <row r="497" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V497" s="29"/>
+      <c r="W497" s="29"/>
+      <c r="X497" s="29"/>
+      <c r="Y497" s="29"/>
+      <c r="Z497" s="29"/>
+    </row>
+    <row r="498" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V498" s="29"/>
+      <c r="W498" s="29"/>
+      <c r="X498" s="29"/>
+      <c r="Y498" s="29"/>
+      <c r="Z498" s="29"/>
+    </row>
+    <row r="499" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V499" s="29"/>
+      <c r="W499" s="29"/>
+      <c r="X499" s="29"/>
+      <c r="Y499" s="29"/>
+      <c r="Z499" s="29"/>
+    </row>
+    <row r="500" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V500" s="29"/>
+      <c r="W500" s="29"/>
+      <c r="X500" s="29"/>
+      <c r="Y500" s="29"/>
+      <c r="Z500" s="29"/>
+    </row>
+    <row r="501" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V501" s="29"/>
+      <c r="W501" s="29"/>
+      <c r="X501" s="29"/>
+      <c r="Y501" s="29"/>
+      <c r="Z501" s="29"/>
+    </row>
+    <row r="502" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V502" s="29"/>
+      <c r="W502" s="29"/>
+      <c r="X502" s="29"/>
+      <c r="Y502" s="29"/>
+      <c r="Z502" s="29"/>
+    </row>
+    <row r="503" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V503" s="29"/>
+      <c r="W503" s="29"/>
+      <c r="X503" s="29"/>
+      <c r="Y503" s="29"/>
+      <c r="Z503" s="29"/>
+    </row>
+    <row r="504" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V504" s="29"/>
+      <c r="W504" s="29"/>
+      <c r="X504" s="29"/>
+      <c r="Y504" s="29"/>
+      <c r="Z504" s="29"/>
+    </row>
+    <row r="505" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V505" s="29"/>
+      <c r="W505" s="29"/>
+      <c r="X505" s="29"/>
+      <c r="Y505" s="29"/>
+      <c r="Z505" s="29"/>
+    </row>
+    <row r="506" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V506" s="29"/>
+      <c r="W506" s="29"/>
+      <c r="X506" s="29"/>
+      <c r="Y506" s="29"/>
+      <c r="Z506" s="29"/>
+    </row>
+    <row r="507" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V507" s="29"/>
+      <c r="W507" s="29"/>
+      <c r="X507" s="29"/>
+      <c r="Y507" s="29"/>
+      <c r="Z507" s="29"/>
+    </row>
+    <row r="508" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V508" s="29"/>
+      <c r="W508" s="29"/>
+      <c r="X508" s="29"/>
+      <c r="Y508" s="29"/>
+      <c r="Z508" s="29"/>
+    </row>
+    <row r="509" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V509" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="W509" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X509" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y509" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z509" s="29"/>
+    </row>
+    <row r="510" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V510" s="29"/>
+      <c r="W510" s="29"/>
+      <c r="X510" s="29"/>
+      <c r="Y510" s="29"/>
+      <c r="Z510" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="511" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V511" s="29"/>
+      <c r="W511" s="29"/>
+      <c r="X511" s="29"/>
+      <c r="Y511" s="29"/>
+      <c r="Z511" s="29"/>
+    </row>
+    <row r="512" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V512" s="29"/>
+      <c r="W512" s="29"/>
+      <c r="X512" s="29"/>
+      <c r="Y512" s="29"/>
+      <c r="Z512" s="29"/>
+    </row>
+    <row r="545" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V545" s="29"/>
+      <c r="W545" s="29"/>
+      <c r="X545" s="29"/>
+      <c r="Y545" s="29"/>
+      <c r="Z545" s="29"/>
+    </row>
+    <row r="546" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V546" s="29"/>
+      <c r="W546" s="29"/>
+      <c r="X546" s="29"/>
+      <c r="Y546" s="29"/>
+      <c r="Z546" s="29"/>
+    </row>
+    <row r="547" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V547" s="29"/>
+      <c r="W547" s="29"/>
+      <c r="X547" s="29"/>
+      <c r="Y547" s="29"/>
+      <c r="Z547" s="29"/>
+    </row>
+    <row r="548" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V548" s="29"/>
+      <c r="W548" s="29"/>
+      <c r="X548" s="29"/>
+      <c r="Y548" s="29"/>
+      <c r="Z548" s="29"/>
+    </row>
+    <row r="549" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V549" s="29"/>
+      <c r="W549" s="29"/>
+      <c r="X549" s="29"/>
+      <c r="Y549" s="29"/>
+      <c r="Z549" s="29"/>
+    </row>
+    <row r="550" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V550" s="29"/>
+      <c r="W550" s="29"/>
+      <c r="X550" s="29"/>
+      <c r="Y550" s="29"/>
+      <c r="Z550" s="29"/>
+    </row>
+    <row r="551" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V551" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W551" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="X551" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y551" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z551" s="29"/>
+    </row>
+    <row r="552" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V552" s="29"/>
+      <c r="W552" s="29"/>
+      <c r="X552" s="29"/>
+      <c r="Y552" s="29"/>
+      <c r="Z552" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="553" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V553" s="29"/>
+      <c r="W553" s="29"/>
+      <c r="X553" s="29"/>
+      <c r="Y553" s="29"/>
+      <c r="Z553" s="29"/>
+    </row>
+    <row r="554" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V554" s="29"/>
+      <c r="W554" s="29"/>
+      <c r="X554" s="29"/>
+      <c r="Y554" s="29"/>
+      <c r="Z554" s="29"/>
+    </row>
+    <row r="555" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V555" s="29"/>
+      <c r="W555" s="29"/>
+      <c r="X555" s="29"/>
+      <c r="Y555" s="29"/>
+      <c r="Z555" s="29"/>
+    </row>
+    <row r="556" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V556" s="29"/>
+      <c r="W556" s="29"/>
+      <c r="X556" s="29"/>
+      <c r="Y556" s="29"/>
+      <c r="Z556" s="29"/>
+    </row>
+    <row r="557" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V557" s="29"/>
+      <c r="W557" s="29"/>
+      <c r="X557" s="29"/>
+      <c r="Y557" s="29"/>
+      <c r="Z557" s="29"/>
+    </row>
+    <row r="558" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V558" s="29"/>
+      <c r="W558" s="29"/>
+      <c r="X558" s="29"/>
+      <c r="Y558" s="29"/>
+      <c r="Z558" s="29"/>
+    </row>
+    <row r="559" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V559" s="29"/>
+      <c r="W559" s="29"/>
+      <c r="X559" s="29"/>
+      <c r="Y559" s="29"/>
+      <c r="Z559" s="29"/>
+    </row>
+    <row r="560" spans="22:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="V560" s="29"/>
+      <c r="W560" s="29"/>
+      <c r="X560" s="29"/>
+      <c r="Y560" s="29"/>
+      <c r="Z560" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="V1:Z1"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O1:U1"/>
